--- a/mixs-templates/extensions_only/BuiltEnvironment.xlsx
+++ b/mixs-templates/extensions_only/BuiltEnvironment.xlsx
@@ -1234,7 +1234,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="79">
+  <dataValidations count="80">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"adobe,carpet,cinder blocks,concrete,glass,hay bales,metal,paint,plastic,stainless steel,stone,stucco,tile,vinyl,wood"</formula1>
     </dataValidation>
@@ -1393,6 +1393,9 @@
     </dataValidation>
     <dataValidation sqref="DR2:DR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"clear sky,cloudy,foggy,hail,rain,sleet,snow,sunny,windy"</formula1>
+    </dataValidation>
+    <dataValidation sqref="DV2:DV1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="DW2:DW1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Fall,Spring,Summer,Winter"</formula1>
